--- a/www/example.xlsx
+++ b/www/example.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -36,55 +36,58 @@
     <t xml:space="preserve">long description for motif_03</t>
   </si>
   <si>
+    <t xml:space="preserve">chr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL6_id1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0_0_255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL6_id2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255_0_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL6_id3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL6_id4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long description for the track</t>
+  </si>
+  <si>
     <t xml:space="preserve">chrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">region_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCL6_id1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0_0_255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCL6_id2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255_0_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCL6_id3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCL6_id4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long description for the track</t>
   </si>
   <si>
     <t xml:space="preserve">chr5</t>
@@ -279,9 +282,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>582840</xdr:colOff>
+      <xdr:colOff>582480</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -295,11 +298,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="695160" y="383400"/>
-          <a:ext cx="9641160" cy="16446600"/>
+          <a:ext cx="9640800" cy="16446240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
@@ -424,7 +428,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -636,7 +640,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -736,7 +740,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>57127705</v>
@@ -745,18 +749,18 @@
         <v>57127717</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
